--- a/Question_Sets/Role-specific skills/Public Relations Strategy.xlsx
+++ b/Question_Sets/Role-specific skills/Public Relations Strategy.xlsx
@@ -16,23 +16,60 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'Your client has developed a new kind of ‘speech-to-text’ software that enables people with different accents to dictate accurately to their computers. This innovation will make people more productive by avoiding situations where accents lead to misinterpretations and the need to correct documents. What would be the best angle to attract media attention to this product?', 'ques_type': 2, 'options': ['“Advance in speech recognition adapts to a variety of accents.”', '“No more correctin’, y’all – new software makes it easy for anyone to talk to their computer.”', '“A startling, game-changing innovation in speech recognition.” ', '“New software leverages advanced, revolutionary lexicon and fuzzy logic, driven by AI, to power new capabilities in speech recognition.”'], 'score': '“Advance in speech recognition adapts to a variety of accents.”'}, {'title': 'You are doing PR for a diabetes research non-profit organization. Your non-profit is conducting its annual 5K race to raise money for research, as it has done for many years. This is a local event. You need to create a list of media contacts who might be interested in covering the story and/or speaking to your main spokesperson about the race to gain press coverage.Which of the following would be the best media to contact?', 'ques_type': 2, 'options': ['Reporters from national media outlets who cover diabetes on the health beat', 'Reporters from national media outlets who cover nonprofits and charitable fundraising', 'Reporters from local media outlets who cover nonprofits, charitable fundraising, and new stories', 'Reporters from local media who cover sports, e.g., running '], 'score': 'Reporters from local media outlets who cover nonprofits, charitable fundraising, and new stories'}, {'title': 'You work in-house for a company that has spent five years and over a billion dollars developing a breakthrough product. It is now time to launch the product to the market, a process that includes a large-scale public relations campaign. As the PR manager, you must work with many stakeholders in the marketing department and beyond to ensure it is a fully integrated campaign. What is the first action you should take to best partner with the marketing team?', 'ques_type': 2, 'options': ['Prepare a final PR plan to send to Marketing, telling them to contact you if they have any questions. ', 'Meet alone with the company’s CEO to get her input on the PR plan. ', 'Devise and execute your PR plan, assuming Marketing will contact them if they have any questions or concerns.', 'Prepare a proposed PR plan to present to Marketing for their input. '], 'score': 'Prepare a proposed PR plan to present to Marketing for their input.'}, {'title': 'The CEO of your company was just arrested for public intoxication at a major industry trade show. Members of the media filmed him getting arrested and then later being released from jail. The press is now calling his office for a statement. As the PR in charge, he calls you for advice on how to respond.With the goal of minimizing reputational damage to the CEO and the company, what should you tell the CEO to do when media outlets request comments?', 'ques_type': 2, 'options': ['Advise that all media calls be directed to the press office (yourself) for an official statement and/or details on potential press conferences.', 'To take as many media calls as possible and answer all media questions as best he can off the top of his head.', 'To only speak to national media outlets like NBC News and the Wall Street Journal to reach the broadest publicity level.', 'To say ‘no comment’ and hang up. '], 'score': 'Advise that all media calls be directed to the press office (yourself) for an official statement and/or details on potential press conferences.'}]</t>
+    <t>questions = [
+    {
+        "title": "Your client has developed a new kind of \u2018speech-to-text\u2019 software that enables people with different accents to dictate accurately to their computers. This innovation will make people more productive by avoiding situations where accents lead to misinterpretations and the need to correct documents. What would be the best angle to attract media attention to this product?",
+        "ques_type": 2,
+        "options": [
+            "\u201cAdvance in speech recognition adapts to a variety of accents.\u201d",
+            "\u201cNo more correctin\u2019, y\u2019all \u2013 new software makes it easy for anyone to talk to their computer.\u201d",
+            "\u201cA startling, game-changing innovation in speech recognition.\u201d ",
+            "\u201cNew software leverages advanced, revolutionary lexicon and fuzzy logic, driven by AI, to power new capabilities in speech recognition.\u201d"
+        ],
+        "score": "\u201cAdvance in speech recognition adapts to a variety of accents.\u201d"
+    },
+    {
+        "title": "You are doing PR for a diabetes research non-profit organization. Your non-profit is conducting its annual 5K race to raise money for research, as it has done for many years. This is a local event. You need to create a list of media contacts who might be interested in covering the story and/or speaking to your main spokesperson about the race to gain press coverage.Which of the following would be the best media to contact?",
+        "ques_type": 2,
+        "options": [
+            "Reporters from national media outlets who cover diabetes on the health beat",
+            "Reporters from national media outlets who cover nonprofits and charitable fundraising",
+            "Reporters from local media outlets who cover nonprofits, charitable fundraising, and new stories",
+            "Reporters from local media who cover sports, e.g., running "
+        ],
+        "score": "Reporters from local media outlets who cover nonprofits, charitable fundraising, and new stories"
+    },
+    {
+        "title": "You work in-house for a company that has spent five years and over a billion dollars developing a breakthrough product. It is now time to launch the product to the market, a process that includes a large-scale public relations campaign. As the PR manager, you must work with many stakeholders in the marketing department and beyond to ensure it is a fully integrated campaign. What is the first action you should take to best partner with the marketing team?",
+        "ques_type": 2,
+        "options": [
+            "Prepare a final PR plan to send to Marketing, telling them to contact you if they have any questions. ",
+            "Meet alone with the company\u2019s CEO to get her input on the PR plan. ",
+            "Devise and execute your PR plan, assuming Marketing will contact them if they have any questions or concerns.",
+            "Prepare a proposed PR plan to present to Marketing for their input. "
+        ],
+        "score": "Prepare a proposed PR plan to present to Marketing for their input."
+    },
+    {
+        "title": "The CEO of your company was just arrested for public intoxication at a major industry trade show. Members of the media filmed him getting arrested and then later being released from jail. The press is now calling his office for a statement. As the PR in charge, he calls you for advice on how to respond.With the goal of minimizing reputational damage to the CEO and the company, what should you tell the CEO to do when media outlets request comments?",
+        "ques_type": 2,
+        "options": [
+            "Advise that all media calls be directed to the press office (yourself) for an official statement and/or details on potential press conferences.",
+            "To take as many media calls as possible and answer all media questions as best he can off the top of his head.",
+            "To only speak to national media outlets like NBC News and the Wall Street Journal to reach the broadest publicity level.",
+            "To say \u2018no comment\u2019 and hang up. "
+        ],
+        "score": "Advise that all media calls be directed to the press office (yourself) for an official statement and/or details on potential press conferences."
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +93,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +393,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
